--- a/data/extracted/Congressional Election Results by State (2016 - 115th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2016 - 115th).xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5C65C-3DD8-4540-B282-F9D15E89857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360C7205-40E2-154A-9570-4971D7481EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="720" windowWidth="23580" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="720" windowWidth="23580" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="4" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="6" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="7" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="6" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="167">
   <si>
     <t>State</t>
   </si>
@@ -389,24 +385,6 @@
     <t>Delta</t>
   </si>
   <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
-  </si>
-  <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
-  </si>
-  <si>
     <t>Uncontested Votes</t>
   </si>
   <si>
@@ -534,18 +512,6 @@
   </si>
   <si>
     <t>NB. "Republican, Tax Revolt" party in the 2nd.</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
-    <t>Sum of TOT1</t>
   </si>
   <si>
     <t>STATE</t>
@@ -641,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,24 +622,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -710,33 +664,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -760,45 +694,21 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -809,1679 +719,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42867.68890439815" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="95" xr:uid="{00000000-000A-0000-FFFF-FFFF2B000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J97" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems count="50">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems count="50">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="293684"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="378754"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="196545"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="415749"/>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="95">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="1st"/>
-    <n v="208083"/>
-    <n v="0"/>
-    <n v="7810"/>
-    <n v="215893"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="4th"/>
-    <n v="235925"/>
-    <n v="0"/>
-    <n v="3519"/>
-    <n v="239444"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="229330"/>
-    <n v="3698"/>
-    <n v="233028"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="148973"/>
-    <n v="2062"/>
-    <n v="151035"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="8th"/>
-    <n v="204942"/>
-    <n v="0"/>
-    <n v="94029"/>
-    <n v="298971"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="1st"/>
-    <n v="183866"/>
-    <n v="0"/>
-    <n v="57181"/>
-    <n v="241047"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="3rd"/>
-    <n v="217192"/>
-    <n v="0"/>
-    <n v="63715"/>
-    <n v="280907"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="4th"/>
-    <n v="182885"/>
-    <n v="0"/>
-    <n v="61274"/>
-    <n v="244159"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="12th"/>
-    <n v="0"/>
-    <n v="274035"/>
-    <n v="64810"/>
-    <n v="338845"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="233192"/>
-    <n v="0"/>
-    <n v="233192"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="29th"/>
-    <n v="0"/>
-    <n v="171824"/>
-    <n v="0"/>
-    <n v="171824"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="32nd"/>
-    <n v="0"/>
-    <n v="186646"/>
-    <n v="0"/>
-    <n v="186646"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="34th"/>
-    <n v="0"/>
-    <n v="159156"/>
-    <n v="0"/>
-    <n v="159156"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="37th"/>
-    <n v="0"/>
-    <n v="237272"/>
-    <n v="0"/>
-    <n v="237272"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="40th"/>
-    <n v="0"/>
-    <n v="106554"/>
-    <n v="42743"/>
-    <n v="149297"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="44th"/>
-    <n v="0"/>
-    <n v="178413"/>
-    <n v="0"/>
-    <n v="178413"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="46th"/>
-    <n v="0"/>
-    <n v="164593"/>
-    <n v="0"/>
-    <n v="164593"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="24th"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="1st"/>
-    <n v="210243"/>
-    <n v="0"/>
-    <n v="869"/>
-    <n v="211112"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="9th"/>
-    <n v="256535"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="256535"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="10th"/>
-    <n v="243725"/>
-    <n v="0"/>
-    <n v="1096"/>
-    <n v="244821"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="252833"/>
-    <n v="0"/>
-    <n v="252833"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="14th"/>
-    <n v="216743"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="216743"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="225320"/>
-    <n v="91"/>
-    <n v="225411"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="171297"/>
-    <n v="0"/>
-    <n v="171297"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="15th"/>
-    <n v="274554"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="274554"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="16th"/>
-    <n v="259722"/>
-    <n v="0"/>
-    <n v="131"/>
-    <n v="259853"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="207515"/>
-    <n v="47068"/>
-    <n v="254583"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="1st"/>
-    <n v="169992"/>
-    <n v="0"/>
-    <n v="87979"/>
-    <n v="257971"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="2nd"/>
-    <n v="251825"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="251825"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="5th"/>
-    <n v="221242"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="221242"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="284269"/>
-    <n v="0"/>
-    <n v="284269"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="5th"/>
-    <n v="255662"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="255662"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="235803"/>
-    <n v="113873"/>
-    <n v="349676"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="275487"/>
-    <n v="87710"/>
-    <n v="363197"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="285606"/>
-    <n v="99849"/>
-    <n v="385455"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="308923"/>
-    <n v="106826"/>
-    <n v="415749"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="253354"/>
-    <n v="56291"/>
-    <n v="309645"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="2nd"/>
-    <n v="173970"/>
-    <n v="0"/>
-    <n v="196545"/>
-    <n v="370515"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="3rd"/>
-    <n v="223075"/>
-    <n v="0"/>
-    <n v="170382"/>
-    <n v="393457"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="6th"/>
-    <n v="235385"/>
-    <n v="0"/>
-    <n v="123545"/>
-    <n v="358930"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="3rd"/>
-    <n v="226720"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="226720"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="203235"/>
-    <n v="54367"/>
-    <n v="257602"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="198886"/>
-    <n v="57967"/>
-    <n v="256853"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="16th"/>
-    <n v="0"/>
-    <n v="198811"/>
-    <n v="88745"/>
-    <n v="287556"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="193819"/>
-    <n v="131752"/>
-    <n v="325571"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="AL"/>
-    <n v="233980"/>
-    <n v="0"/>
-    <n v="104479"/>
-    <n v="338459"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="1st"/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <s v=" "/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="274687"/>
-    <n v="107668"/>
-    <n v="382355"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="3rd"/>
-    <n v="244893"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="244893"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="239316"/>
-    <n v="0"/>
-    <n v="239316"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="18th"/>
-    <n v="293684"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="293684"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="4th"/>
-    <n v="216643"/>
-    <n v="0"/>
-    <n v="29577"/>
-    <n v="246220"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="5th"/>
-    <n v="155469"/>
-    <n v="0"/>
-    <n v="37406"/>
-    <n v="192875"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="8th"/>
-    <n v="236379"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="236379"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="11th"/>
-    <n v="201871"/>
-    <n v="0"/>
-    <n v="23677"/>
-    <n v="225548"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="13th"/>
-    <n v="199050"/>
-    <n v="0"/>
-    <n v="22192"/>
-    <n v="221242"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="16th"/>
-    <n v="0"/>
-    <n v="150228"/>
-    <n v="25001"/>
-    <n v="175229"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="19th"/>
-    <n v="176314"/>
-    <n v="0"/>
-    <n v="27161"/>
-    <n v="203475"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="149640"/>
-    <n v="38029"/>
-    <n v="187669"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="32nd"/>
-    <n v="162868"/>
-    <n v="0"/>
-    <n v="66303"/>
-    <n v="229171"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="36th"/>
-    <n v="193675"/>
-    <n v="0"/>
-    <n v="24890"/>
-    <n v="218565"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="11th"/>
-    <n v="0"/>
-    <n v="247818"/>
-    <n v="34185"/>
-    <n v="282003"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="4th"/>
-    <n v="229919"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="229919"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="378754"/>
-    <n v="0"/>
-    <n v="378754"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="257401"/>
-    <n v="2969"/>
-    <n v="260370"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="220181"/>
-    <n v="66728"/>
-    <n v="286909"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of TOT1" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2747,13 +984,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2763,15 +1000,12 @@
     <col min="3" max="3" width="10.83203125" style="13"/>
     <col min="4" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="17" customWidth="1"/>
-    <col min="12" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="26" style="17" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="17" customWidth="1"/>
+    <col min="8" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -2782,23 +1016,15 @@
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,35 +1043,23 @@
       <c r="F2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>118</v>
+      <c r="G2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2865,33 +1079,20 @@
       <c r="F3" s="3">
         <v>1889685</v>
       </c>
-      <c r="G3" s="13">
-        <v>688365</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23">
-        <f t="shared" ref="J3:J34" si="0">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>300330</v>
-      </c>
-      <c r="K3" s="17">
+      <c r="G3" s="17">
         <v>6</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2911,33 +1112,20 @@
       <c r="F4" s="3">
         <v>308198</v>
       </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <f t="shared" si="0"/>
-        <v>308198</v>
-      </c>
-      <c r="K4" s="17">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2951,39 +1139,26 @@
         <v>1034687</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E52" si="1">F5-D5-C5</f>
+        <f t="shared" ref="E5:E52" si="0">F5-D5-C5</f>
         <v>112999</v>
       </c>
       <c r="F5" s="3">
         <v>2412064</v>
       </c>
-      <c r="G5" s="13">
-        <v>450006</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23">
-        <f t="shared" si="0"/>
-        <v>280294</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="G5" s="17">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2997,39 +1172,26 @@
         <v>111347</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>196815</v>
       </c>
       <c r="F6" s="3">
         <v>1068577</v>
       </c>
-      <c r="G6" s="13">
-        <v>766113</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
-        <f t="shared" si="0"/>
-        <v>302464</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="G6" s="17">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3043,39 +1205,26 @@
         <v>8624432</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>107553</v>
       </c>
       <c r="F7" s="3">
         <v>13414018</v>
       </c>
-      <c r="G7" s="13">
-        <v>1819238</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>9</v>
-      </c>
-      <c r="J7" s="23">
-        <f t="shared" si="0"/>
-        <v>263517.72727272729</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="G7" s="17">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="H7">
         <v>39</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3089,39 +1238,26 @@
         <v>1263791</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>149029</v>
       </c>
       <c r="F8" s="3">
         <v>2701438</v>
       </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
-        <f t="shared" si="0"/>
-        <v>385919.71428571426</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="G8" s="17">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3135,39 +1271,26 @@
         <v>916815</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100206</v>
       </c>
       <c r="F9" s="3">
         <v>1575183</v>
       </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
-        <f t="shared" si="0"/>
-        <v>315036.59999999998</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3181,39 +1304,26 @@
         <v>233554</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14762</v>
       </c>
       <c r="F10" s="3">
         <v>420617</v>
       </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <f t="shared" si="0"/>
-        <v>420617</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3227,39 +1337,26 @@
         <v>3985050</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>118746</v>
       </c>
       <c r="F11" s="3">
         <v>8837426</v>
       </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="23">
-        <f t="shared" si="0"/>
-        <v>339901</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="G11" s="17">
         <v>16</v>
       </c>
-      <c r="L11">
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3273,39 +1370,26 @@
         <v>1498437</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1965</v>
       </c>
       <c r="F12" s="3">
         <v>3772862</v>
       </c>
-      <c r="G12" s="13">
-        <v>1182044</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="17">
+        <v>10</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23">
-        <f t="shared" si="0"/>
-        <v>287868.66666666669</v>
-      </c>
-      <c r="K12" s="17">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -3319,39 +1403,26 @@
         <v>316265</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35773</v>
       </c>
       <c r="F13" s="3">
         <v>437664</v>
       </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="0"/>
-        <v>218832</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3365,39 +1436,26 @@
         <v>208992</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25058</v>
       </c>
       <c r="F14" s="3">
         <v>681594</v>
       </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23">
-        <f t="shared" si="0"/>
-        <v>340797</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="G14" s="17">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3411,39 +1469,26 @@
         <v>2810536</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33795</v>
       </c>
       <c r="F15" s="3">
         <v>5241767</v>
       </c>
-      <c r="G15" s="13">
-        <v>931115</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="23">
-        <f t="shared" si="0"/>
-        <v>307903.71428571426</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="G15" s="17">
         <v>7</v>
       </c>
-      <c r="L15">
+      <c r="H15">
         <v>11</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3457,39 +1502,26 @@
         <v>1052901</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>162477</v>
       </c>
       <c r="F16" s="3">
         <v>2658367</v>
       </c>
-      <c r="G16" s="13">
-        <v>254583</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="23">
-        <f t="shared" si="0"/>
-        <v>300473</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="G16" s="17">
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3503,39 +1535,26 @@
         <v>673969</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28433</v>
       </c>
       <c r="F17" s="3">
         <v>1515555</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23">
-        <f t="shared" si="0"/>
-        <v>378888.75</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="G17" s="17">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3549,39 +1568,26 @@
         <v>317635</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>161861</v>
       </c>
       <c r="F18" s="3">
         <v>1173736</v>
       </c>
-      <c r="G18" s="13">
-        <v>257971</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="0"/>
-        <v>305255</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="G18" s="17">
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3595,39 +1601,26 @@
         <v>516904</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>332</v>
       </c>
       <c r="F19" s="3">
         <v>1765376</v>
       </c>
-      <c r="G19" s="13">
-        <v>473067</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="23">
-        <f t="shared" si="0"/>
-        <v>323077.25</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="G19" s="17">
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3641,39 +1634,26 @@
         <v>530050</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41428</v>
       </c>
       <c r="F20" s="3">
         <v>1749021</v>
       </c>
-      <c r="G20" s="13">
-        <v>539931</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="23">
-        <f t="shared" si="0"/>
-        <v>302272.5</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="G20" s="17">
         <v>5</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3687,39 +1667,26 @@
         <v>386627</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27754</v>
       </c>
       <c r="F21" s="3">
         <v>771828</v>
       </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
-        <f t="shared" si="0"/>
-        <v>385914</v>
-      </c>
-      <c r="K21" s="17">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3733,39 +1700,26 @@
         <v>1636200</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>109457</v>
       </c>
       <c r="F22" s="3">
         <v>2707745</v>
       </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="23">
-        <f t="shared" si="0"/>
-        <v>338468.125</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22">
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>7</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3779,39 +1733,26 @@
         <v>2344518</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>583162</v>
       </c>
       <c r="F23" s="3">
         <v>3378801</v>
       </c>
-      <c r="G23" s="13">
-        <v>1823722</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" si="0"/>
-        <v>388769.75</v>
-      </c>
-      <c r="K23" s="17">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3825,39 +1766,26 @@
         <v>2193980</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>233523</v>
       </c>
       <c r="F24" s="3">
         <v>4670905</v>
       </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
-        <f t="shared" si="0"/>
-        <v>333636.07142857142</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="G24" s="17">
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -3871,39 +1799,26 @@
         <v>1434559</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>91151</v>
       </c>
       <c r="F25" s="3">
         <v>2860389</v>
       </c>
-      <c r="G25" s="13">
-        <v>1122902</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="17">
         <v>3</v>
       </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="0"/>
-        <v>347497.4</v>
-      </c>
-      <c r="K25" s="17">
-        <v>3</v>
-      </c>
-      <c r="L25">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -3917,39 +1832,26 @@
         <v>449896</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51567</v>
       </c>
       <c r="F26" s="3">
         <v>1182273</v>
       </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23">
-        <f t="shared" si="0"/>
-        <v>295568.25</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="G26" s="17">
         <v>3</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -3963,39 +1865,26 @@
         <v>1041306</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>108249</v>
       </c>
       <c r="F27" s="3">
         <v>2750079</v>
       </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="23">
-        <f t="shared" si="0"/>
-        <v>343759.875</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="G27" s="17">
         <v>6</v>
       </c>
-      <c r="L27">
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -4009,39 +1898,26 @@
         <v>205919</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16554</v>
       </c>
       <c r="F28" s="3">
         <v>507831</v>
       </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23">
-        <f t="shared" si="0"/>
-        <v>507831</v>
-      </c>
-      <c r="K28" s="17">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -4055,39 +1931,26 @@
         <v>221069</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9640</v>
       </c>
       <c r="F29" s="3">
         <v>788266</v>
       </c>
-      <c r="G29" s="13">
-        <v>226720</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="23">
-        <f t="shared" si="0"/>
-        <v>280773</v>
-      </c>
-      <c r="K29" s="17">
+      <c r="G29" s="17">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -4101,39 +1964,26 @@
         <v>508113</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>72280</v>
       </c>
       <c r="F30" s="3">
         <v>1078497</v>
       </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="23">
-        <f t="shared" si="0"/>
-        <v>269624.25</v>
-      </c>
-      <c r="K30" s="17">
-        <v>1</v>
-      </c>
-      <c r="L30">
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -4147,39 +1997,26 @@
         <v>336451</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64041</v>
       </c>
       <c r="F31" s="3">
         <v>716493</v>
       </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="23">
-        <f t="shared" si="0"/>
-        <v>358246.5</v>
-      </c>
-      <c r="K31" s="17">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -4193,39 +2030,26 @@
         <v>1821620</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100060</v>
       </c>
       <c r="F32" s="3">
         <v>3463311</v>
       </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="23">
-        <f t="shared" si="0"/>
-        <v>288609.25</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="G32" s="17">
         <v>5</v>
       </c>
-      <c r="L32">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -4239,39 +2063,26 @@
         <v>436932</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="F33" s="3">
         <v>780126</v>
       </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="23">
-        <f t="shared" si="0"/>
-        <v>260042</v>
-      </c>
-      <c r="K33" s="17">
-        <v>1</v>
-      </c>
-      <c r="L33">
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -4285,39 +2096,26 @@
         <v>4202200</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1457244</v>
       </c>
       <c r="F34" s="3">
         <v>7800361</v>
       </c>
-      <c r="G34" s="13">
-        <v>1127582</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>4</v>
-      </c>
-      <c r="J34" s="23">
-        <f t="shared" si="0"/>
-        <v>290120.82608695654</v>
-      </c>
-      <c r="K34" s="17">
+      <c r="G34" s="17">
         <v>9</v>
       </c>
-      <c r="L34">
+      <c r="H34">
         <v>18</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -4331,39 +2129,26 @@
         <v>2142661</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8471</v>
       </c>
       <c r="F35" s="3">
         <v>4598458</v>
       </c>
-      <c r="G35" s="13">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="23">
-        <f t="shared" ref="J35:J52" si="2">(F35-G35)/(N35-SUM(H35:I35))</f>
-        <v>353727.53846153844</v>
-      </c>
-      <c r="K35" s="17">
+      <c r="G35" s="17">
         <v>10</v>
       </c>
-      <c r="L35">
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -4377,39 +2162,26 @@
         <v>80377</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24102</v>
       </c>
       <c r="F36" s="3">
         <v>338459</v>
       </c>
-      <c r="G36" s="13">
-        <v>338459</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="34" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="17">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -4423,39 +2195,26 @@
         <v>2154523</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67815</v>
       </c>
       <c r="F37" s="3">
         <v>5218355</v>
       </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="23">
-        <f t="shared" si="2"/>
-        <v>326147.1875</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="G37" s="17">
         <v>12</v>
       </c>
-      <c r="L37">
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -4469,39 +2228,26 @@
         <v>305222</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46331</v>
       </c>
       <c r="F38" s="3">
         <v>1133244</v>
       </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="23">
-        <f t="shared" si="2"/>
-        <v>283311</v>
-      </c>
-      <c r="K38" s="17">
+      <c r="G38" s="17">
         <v>5</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -4515,39 +2261,26 @@
         <v>1026851</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>154120</v>
       </c>
       <c r="F39" s="3">
         <v>1911865</v>
       </c>
-      <c r="G39" s="13">
-        <v>382355</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="23">
-        <f t="shared" si="2"/>
-        <v>382377.5</v>
-      </c>
-      <c r="K39" s="17">
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -4561,39 +2294,26 @@
         <v>2625157</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22245</v>
       </c>
       <c r="F40" s="3">
         <v>5743978</v>
       </c>
-      <c r="G40" s="13">
-        <v>777893</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="23">
-        <f t="shared" si="2"/>
-        <v>331072.33333333331</v>
-      </c>
-      <c r="K40" s="17">
+      <c r="G40" s="17">
         <v>13</v>
       </c>
-      <c r="L40">
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -4607,39 +2327,26 @@
         <v>263642</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26553</v>
       </c>
       <c r="F41" s="3">
         <v>431519</v>
       </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="23">
-        <f t="shared" si="2"/>
-        <v>215759.5</v>
-      </c>
-      <c r="K41" s="17">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -4653,39 +2360,26 @@
         <v>767627</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66754</v>
       </c>
       <c r="F42" s="3">
         <v>2011746</v>
       </c>
-      <c r="G42" s="13">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="23">
-        <f t="shared" si="2"/>
-        <v>287392.28571428574</v>
-      </c>
-      <c r="K42" s="17">
+      <c r="G42" s="17">
         <v>6</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -4699,39 +2393,26 @@
         <v>132810</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>369973</v>
       </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="23">
-        <f t="shared" si="2"/>
-        <v>369973</v>
-      </c>
-      <c r="K43" s="17">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -4745,39 +2426,26 @@
         <v>814181</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>83140</v>
       </c>
       <c r="F44" s="3">
         <v>2391061</v>
       </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="23">
-        <f t="shared" si="2"/>
-        <v>265673.44444444444</v>
-      </c>
-      <c r="K44" s="17">
+      <c r="G44" s="17">
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -4791,39 +2459,26 @@
         <v>3160535</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>490386</v>
       </c>
       <c r="F45" s="3">
         <v>8528526</v>
       </c>
-      <c r="G45" s="13">
-        <v>2136373</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2</v>
-      </c>
-      <c r="J45" s="23">
-        <f t="shared" si="2"/>
-        <v>245852.03846153847</v>
-      </c>
-      <c r="K45" s="17">
+      <c r="G45" s="17">
         <v>25</v>
       </c>
-      <c r="L45">
+      <c r="H45">
         <v>11</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -4837,39 +2492,26 @@
         <v>356287</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47222</v>
       </c>
       <c r="F46" s="3">
         <v>1114144</v>
       </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="23">
-        <f t="shared" si="2"/>
-        <v>278536</v>
-      </c>
-      <c r="K46" s="17">
+      <c r="G46" s="17">
         <v>4</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -4883,39 +2525,26 @@
         <v>264414</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56053</v>
       </c>
       <c r="F47" s="3">
         <v>320467</v>
       </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="23">
-        <f t="shared" si="2"/>
-        <v>320467</v>
-      </c>
-      <c r="K47" s="17">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -4929,39 +2558,26 @@
         <v>1859426</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79132</v>
       </c>
       <c r="F48" s="3">
         <v>3781568</v>
       </c>
-      <c r="G48" s="13">
-        <v>282003</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="23">
-        <f t="shared" si="2"/>
-        <v>349956.5</v>
-      </c>
-      <c r="K48" s="17">
+      <c r="G48" s="17">
         <v>7</v>
       </c>
-      <c r="L48">
+      <c r="H48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -4975,39 +2591,26 @@
         <v>1736145</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" ref="E49" si="3">F49-D49-C49</f>
+        <f t="shared" ref="E49" si="1">F49-D49-C49</f>
         <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>3141035</v>
       </c>
-      <c r="G49" s="13">
-        <v>608673</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
-      <c r="J49" s="23">
-        <f t="shared" si="2"/>
-        <v>316545.25</v>
-      </c>
-      <c r="K49" s="17">
+      <c r="G49" s="17">
         <v>4</v>
       </c>
-      <c r="L49">
+      <c r="H49">
         <v>6</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -5021,39 +2624,26 @@
         <v>224449</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16883</v>
       </c>
       <c r="F50" s="3">
         <v>686349</v>
       </c>
-      <c r="G50" s="13">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="23">
-        <f t="shared" si="2"/>
-        <v>228783</v>
-      </c>
-      <c r="K50" s="17">
+      <c r="G50" s="17">
         <v>3</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -5067,39 +2657,26 @@
         <v>1379996</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>123387</v>
       </c>
       <c r="F51" s="3">
         <v>2773662</v>
       </c>
-      <c r="G51" s="13">
-        <v>547279</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>2</v>
-      </c>
-      <c r="J51" s="23">
-        <f t="shared" si="2"/>
-        <v>371063.83333333331</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="G51" s="17">
         <v>5</v>
       </c>
-      <c r="L51">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -5113,42 +2690,29 @@
         <v>75466</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27146</v>
       </c>
       <c r="F52" s="3">
         <v>258788</v>
       </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="23">
-        <f t="shared" si="2"/>
-        <v>258788</v>
-      </c>
-      <c r="K52" s="17">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5158,42 +2722,36 @@
         <v>62772225</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" ref="D54:F54" si="4">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="2">SUM(D3:D52)</f>
         <v>61417454</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5643571</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>129833250</v>
       </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="18">
-        <f>SUM(K3:K52)</f>
+      <c r="G54" s="18">
+        <f>SUM(G3:G52)</f>
         <v>241</v>
       </c>
-      <c r="L54" s="5">
-        <f t="shared" ref="L54:N54" si="5">SUM(L3:L52)</f>
+      <c r="H54" s="5">
+        <f t="shared" ref="H54:J54" si="3">SUM(H3:H52)</f>
         <v>194</v>
       </c>
-      <c r="M54" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="5"/>
+      <c r="I54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="3"/>
         <v>435</v>
       </c>
-      <c r="O54" s="18"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K54" s="18"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -5206,20 +2764,20 @@
       <c r="F57" s="3">
         <v>129833250</v>
       </c>
-      <c r="K57" s="17">
+      <c r="G57" s="17">
         <v>241</v>
       </c>
-      <c r="L57">
+      <c r="H57">
         <v>194</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5228,36 +2786,36 @@
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:F58" si="6">D54-D57</f>
+        <f t="shared" ref="D58:F58" si="4">D54-D57</f>
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
-        <f>K54-K57</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>L54-L57</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>M54-M57</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>N54-N57</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="17">
+        <f>G54-G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>H54-H57</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>I54-I57</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54-J57</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T54">
     <sortCondition ref="A5:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5266,13 +2824,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5280,13 +2838,13 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="17"/>
-    <col min="6" max="6" width="10.83203125" style="32"/>
+    <col min="6" max="6" width="10.83203125" style="26"/>
     <col min="7" max="7" width="10.83203125" style="3"/>
     <col min="8" max="8" width="10.83203125" style="17"/>
     <col min="11" max="11" width="52.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>19</v>
@@ -5294,18 +2852,18 @@
       <c r="C1" s="1"/>
       <c r="D1" s="14"/>
       <c r="E1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="25"/>
+        <v>113</v>
+      </c>
+      <c r="F1" s="19"/>
       <c r="G1" s="8"/>
       <c r="H1" s="15"/>
       <c r="I1" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5313,34 +2871,34 @@
         <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="J2" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5348,7 +2906,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D3" s="13">
         <v>208083</v>
@@ -5372,8 +2930,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5381,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D4" s="13">
         <v>235925</v>
@@ -5405,8 +2967,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="2">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5414,7 +2980,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -5423,7 +2989,7 @@
         <v>229330</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5" si="2">G5-SUM(D5:E5)</f>
+        <f t="shared" ref="F5" si="3">G5-SUM(D5:E5)</f>
         <v>3698</v>
       </c>
       <c r="G5" s="3">
@@ -5438,8 +3004,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5447,7 +3017,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -5456,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F97" si="3">G6-SUM(D6:E6)</f>
+        <f t="shared" ref="F6:F97" si="4">G6-SUM(D6:E6)</f>
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -5471,8 +3041,12 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -5480,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -5489,7 +3063,7 @@
         <v>148973</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2062</v>
       </c>
       <c r="G7" s="3">
@@ -5504,8 +3078,12 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -5513,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D8" s="13">
         <v>204942</v>
@@ -5522,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8" si="4">G8-SUM(D8:E8)</f>
+        <f t="shared" ref="F8" si="5">G8-SUM(D8:E8)</f>
         <v>94029</v>
       </c>
       <c r="G8" s="3">
@@ -5537,8 +3115,12 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5546,7 +3128,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D9" s="13">
         <v>183866</v>
@@ -5555,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57181</v>
       </c>
       <c r="G9" s="3">
@@ -5570,8 +3152,12 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5579,7 +3165,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="13">
         <v>217192</v>
@@ -5588,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="5">G10-SUM(D10:E10)</f>
+        <f t="shared" ref="F10:F11" si="6">G10-SUM(D10:E10)</f>
         <v>63715</v>
       </c>
       <c r="G10" s="3">
@@ -5603,8 +3189,12 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -5612,7 +3202,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D11" s="13">
         <v>182885</v>
@@ -5621,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61274</v>
       </c>
       <c r="G11" s="3">
@@ -5636,8 +3226,12 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5645,7 +3239,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
@@ -5654,7 +3248,7 @@
         <v>274035</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64810</v>
       </c>
       <c r="G12" s="3">
@@ -5669,8 +3263,12 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5678,7 +3276,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D13" s="13">
         <v>0</v>
@@ -5687,7 +3285,7 @@
         <v>233192</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:F20" si="6">G13-SUM(D13:E13)</f>
+        <f t="shared" ref="F13:F20" si="7">G13-SUM(D13:E13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="3">
@@ -5702,8 +3300,12 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5711,7 +3313,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
@@ -5720,7 +3322,7 @@
         <v>171824</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G14" s="3">
@@ -5735,8 +3337,12 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5744,7 +3350,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -5753,7 +3359,7 @@
         <v>186646</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G15" s="3">
@@ -5768,8 +3374,12 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5777,7 +3387,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -5786,7 +3396,7 @@
         <v>159156</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G16" s="3">
@@ -5801,8 +3411,12 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -5810,7 +3424,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -5819,7 +3433,7 @@
         <v>237272</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="3">
@@ -5834,8 +3448,12 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5843,7 +3461,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -5852,7 +3470,7 @@
         <v>106554</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42743</v>
       </c>
       <c r="G18" s="3">
@@ -5867,8 +3485,12 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5876,7 +3498,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D19" s="13">
         <v>0</v>
@@ -5885,7 +3507,7 @@
         <v>178413</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G19" s="3">
@@ -5900,8 +3522,12 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5909,7 +3535,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
@@ -5918,7 +3544,7 @@
         <v>164593</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G20" s="3">
@@ -5933,8 +3559,12 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -5942,7 +3572,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D21" s="13">
         <v>0</v>
@@ -5951,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G21" s="3">
@@ -5966,8 +3596,12 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5975,7 +3609,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D22" s="13">
         <v>0</v>
@@ -5984,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="3">
@@ -5999,8 +3633,12 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6008,7 +3646,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D23" s="13">
         <v>0</v>
@@ -6017,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="3">
@@ -6032,43 +3670,51 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="29">
-        <v>0</v>
-      </c>
-      <c r="I24" s="30">
-        <v>1</v>
-      </c>
-      <c r="J24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -6076,7 +3722,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D25" s="13">
         <v>210243</v>
@@ -6085,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>869</v>
       </c>
       <c r="G25" s="3">
@@ -6100,8 +3746,12 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6109,7 +3759,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D26" s="13">
         <v>256535</v>
@@ -6118,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" ref="F26:F29" si="7">G26-SUM(D26:E26)</f>
+        <f t="shared" ref="F26:F29" si="8">G26-SUM(D26:E26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="3">
@@ -6133,8 +3783,12 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -6142,7 +3796,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D27" s="13">
         <v>243725</v>
@@ -6151,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1096</v>
       </c>
       <c r="G27" s="3">
@@ -6166,8 +3820,12 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -6175,7 +3833,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D28" s="13">
         <v>0</v>
@@ -6184,7 +3842,7 @@
         <v>252833</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
@@ -6199,8 +3857,12 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6208,7 +3870,7 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D29" s="13">
         <v>216743</v>
@@ -6217,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
@@ -6232,8 +3894,12 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -6241,7 +3907,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D30" s="13">
         <v>0</v>
@@ -6250,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G30" s="3">
@@ -6265,8 +3931,12 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -6274,7 +3944,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D31" s="13">
         <v>0</v>
@@ -6283,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
@@ -6298,8 +3968,12 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -6307,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D32" s="13">
         <v>0</v>
@@ -6316,7 +3990,7 @@
         <v>225320</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="G32" s="3">
@@ -6331,8 +4005,12 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -6340,7 +4018,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D33" s="13">
         <v>0</v>
@@ -6349,7 +4027,7 @@
         <v>171297</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" ref="F33:F35" si="8">G33-SUM(D33:E33)</f>
+        <f t="shared" ref="F33:F35" si="9">G33-SUM(D33:E33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="3">
@@ -6364,8 +4042,12 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -6373,7 +4055,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D34" s="13">
         <v>274554</v>
@@ -6382,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G34" s="3">
@@ -6397,8 +4079,12 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -6406,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D35" s="13">
         <v>259722</v>
@@ -6415,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>131</v>
       </c>
       <c r="G35" s="3">
@@ -6430,8 +4116,12 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -6439,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -6448,7 +4138,7 @@
         <v>207515</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47068</v>
       </c>
       <c r="G36" s="3">
@@ -6463,8 +4153,12 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -6472,7 +4166,7 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D37" s="13">
         <v>0</v>
@@ -6481,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
@@ -6496,8 +4190,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -6505,7 +4203,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D38" s="13">
         <v>169992</v>
@@ -6514,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87979</v>
       </c>
       <c r="G38" s="3">
@@ -6529,8 +4227,12 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -6538,7 +4240,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D39" s="13">
         <v>251825</v>
@@ -6547,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="3">
@@ -6562,8 +4264,12 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -6571,7 +4277,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D40" s="13">
         <v>221242</v>
@@ -6580,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40" si="9">G40-SUM(D40:E40)</f>
+        <f t="shared" ref="F40" si="10">G40-SUM(D40:E40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="3">
@@ -6595,8 +4301,12 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -6604,7 +4314,7 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D41" s="13">
         <v>0</v>
@@ -6613,7 +4323,7 @@
         <v>284269</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="3">
@@ -6628,8 +4338,12 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -6637,7 +4351,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D42" s="13">
         <v>255662</v>
@@ -6646,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" ref="F42" si="10">G42-SUM(D42:E42)</f>
+        <f t="shared" ref="F42" si="11">G42-SUM(D42:E42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="3">
@@ -6661,8 +4375,12 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -6670,7 +4388,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D43" s="13">
         <v>0</v>
@@ -6679,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="3">
@@ -6694,8 +4412,12 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -6703,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
@@ -6712,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="3">
@@ -6727,8 +4449,12 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -6736,7 +4462,7 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D45" s="13">
         <v>0</v>
@@ -6745,7 +4471,7 @@
         <v>235803</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113873</v>
       </c>
       <c r="G45" s="3">
@@ -6763,8 +4489,12 @@
       <c r="K45" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -6772,7 +4502,7 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -6781,7 +4511,7 @@
         <v>275487</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" ref="F46:F49" si="11">G46-SUM(D46:E46)</f>
+        <f t="shared" ref="F46:F49" si="12">G46-SUM(D46:E46)</f>
         <v>87710</v>
       </c>
       <c r="G46" s="3">
@@ -6796,8 +4526,12 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -6805,7 +4539,7 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -6814,7 +4548,7 @@
         <v>285606</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99849</v>
       </c>
       <c r="G47" s="3">
@@ -6829,8 +4563,12 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -6838,7 +4576,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D48" s="13">
         <v>0</v>
@@ -6847,7 +4585,7 @@
         <v>308923</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>106826</v>
       </c>
       <c r="G48" s="3">
@@ -6862,8 +4600,12 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -6871,7 +4613,7 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D49" s="13">
         <v>0</v>
@@ -6880,7 +4622,7 @@
         <v>253354</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56291</v>
       </c>
       <c r="G49" s="3">
@@ -6895,8 +4637,12 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6904,7 +4650,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D50" s="13">
         <v>0</v>
@@ -6913,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G50" s="3">
@@ -6928,8 +4674,12 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -6937,7 +4687,7 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D51" s="13">
         <v>173970</v>
@@ -6946,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196545</v>
       </c>
       <c r="G51" s="3">
@@ -6962,10 +4712,14 @@
         <v>0</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -6973,7 +4727,7 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D52" s="13">
         <v>223075</v>
@@ -6982,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" ref="F52:F53" si="12">G52-SUM(D52:E52)</f>
+        <f t="shared" ref="F52:F53" si="13">G52-SUM(D52:E52)</f>
         <v>170382</v>
       </c>
       <c r="G52" s="3">
@@ -6998,10 +4752,14 @@
         <v>0</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -7009,7 +4767,7 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D53" s="13">
         <v>235385</v>
@@ -7018,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>123545</v>
       </c>
       <c r="G53" s="3">
@@ -7034,10 +4792,14 @@
         <v>0</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -7045,7 +4807,7 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D54" s="13">
         <v>0</v>
@@ -7054,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
@@ -7072,8 +4834,12 @@
       <c r="K54" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -7081,7 +4847,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D55" s="13">
         <v>0</v>
@@ -7090,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G55" s="3">
@@ -7105,8 +4871,12 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -7114,7 +4884,7 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D56" s="13">
         <v>0</v>
@@ -7123,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G56" s="3">
@@ -7138,8 +4908,12 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -7147,7 +4921,7 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D57" s="13">
         <v>226720</v>
@@ -7156,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G57" s="3">
@@ -7171,8 +4945,12 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -7180,7 +4958,7 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D58" s="13">
         <v>0</v>
@@ -7189,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G58" s="3">
@@ -7204,8 +4982,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -7213,7 +4995,7 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D59" s="13">
         <v>0</v>
@@ -7222,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G59" s="3">
@@ -7237,8 +5019,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -7246,7 +5032,7 @@
         <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D60" s="13">
         <v>0</v>
@@ -7255,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G60" s="3">
@@ -7270,8 +5056,12 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -7279,7 +5069,7 @@
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D61" s="13">
         <v>0</v>
@@ -7288,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G61" s="3">
@@ -7303,44 +5093,52 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="26">
-        <v>0</v>
-      </c>
-      <c r="E62" s="27">
-        <v>0</v>
-      </c>
-      <c r="F62" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="27">
-        <v>0</v>
-      </c>
-      <c r="H62" s="29">
-        <v>0</v>
-      </c>
-      <c r="I62" s="30">
-        <v>0</v>
-      </c>
-      <c r="J62" s="30">
-        <v>0</v>
-      </c>
-      <c r="K62" s="29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="21">
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
+        <v>0</v>
+      </c>
+      <c r="I62" s="24">
+        <v>0</v>
+      </c>
+      <c r="J62" s="24">
+        <v>0</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="L62" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -7348,7 +5146,7 @@
         <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D63" s="13">
         <v>0</v>
@@ -7357,7 +5155,7 @@
         <v>203235</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" ref="F63:F66" si="13">G63-SUM(D63:E63)</f>
+        <f t="shared" ref="F63:F66" si="14">G63-SUM(D63:E63)</f>
         <v>54367</v>
       </c>
       <c r="G63" s="3">
@@ -7372,8 +5170,12 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -7381,7 +5183,7 @@
         <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D64" s="13">
         <v>0</v>
@@ -7390,7 +5192,7 @@
         <v>198886</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>57967</v>
       </c>
       <c r="G64" s="3">
@@ -7405,8 +5207,12 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -7414,7 +5220,7 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D65" s="13">
         <v>0</v>
@@ -7423,7 +5229,7 @@
         <v>198811</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>88745</v>
       </c>
       <c r="G65" s="3">
@@ -7438,8 +5244,12 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -7447,7 +5257,7 @@
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D66" s="13">
         <v>0</v>
@@ -7456,7 +5266,7 @@
         <v>193819</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>131752</v>
       </c>
       <c r="G66" s="3">
@@ -7471,8 +5281,12 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -7480,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D67" s="13">
         <v>0</v>
@@ -7489,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G67" s="3">
@@ -7504,8 +5318,12 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -7522,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104479</v>
       </c>
       <c r="G68" s="3">
@@ -7537,8 +5355,12 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L97" si="15">IF(AND(SUM(H68:J68)=0,G68&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -7546,7 +5368,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D69" s="13">
         <v>0</v>
@@ -7555,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69" s="3">
@@ -7570,43 +5392,51 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="30" t="s">
+      <c r="L69" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="26" t="s">
+      <c r="C70" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="29">
-        <v>1</v>
-      </c>
-      <c r="I70" s="30">
-        <v>0</v>
-      </c>
-      <c r="J70" s="30">
-        <v>0</v>
-      </c>
-      <c r="K70" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H70" s="23">
+        <v>1</v>
+      </c>
+      <c r="I70" s="24">
+        <v>0</v>
+      </c>
+      <c r="J70" s="24">
+        <v>0</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" s="24" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -7614,7 +5444,7 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D71" s="13">
         <v>0</v>
@@ -7623,7 +5453,7 @@
         <v>274687</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107668</v>
       </c>
       <c r="G71" s="3">
@@ -7638,8 +5468,12 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -7647,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D72" s="13">
         <v>244893</v>
@@ -7656,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G72" s="3">
@@ -7671,8 +5505,12 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -7680,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D73" s="13">
         <v>0</v>
@@ -7689,7 +5527,7 @@
         <v>239316</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" ref="F73:F74" si="14">G73-SUM(D73:E73)</f>
+        <f t="shared" ref="F73:F74" si="16">G73-SUM(D73:E73)</f>
         <v>0</v>
       </c>
       <c r="G73" s="3">
@@ -7704,8 +5542,12 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7713,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D74" s="13">
         <v>293684</v>
@@ -7722,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G74" s="3">
@@ -7737,8 +5579,12 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7746,7 +5592,7 @@
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D75" s="13">
         <v>0</v>
@@ -7755,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G75" s="3">
@@ -7770,8 +5616,12 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -7779,7 +5629,7 @@
         <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D76" s="13">
         <v>0</v>
@@ -7788,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G76" s="3">
@@ -7803,8 +5653,12 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -7812,7 +5666,7 @@
         <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D77" s="13">
         <v>0</v>
@@ -7821,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77" s="3">
@@ -7836,8 +5690,12 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -7845,7 +5703,7 @@
         <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D78" s="13">
         <v>0</v>
@@ -7854,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G78" s="3">
@@ -7869,8 +5727,12 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -7878,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D79" s="13">
         <v>216643</v>
@@ -7887,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29577</v>
       </c>
       <c r="G79" s="3">
@@ -7902,8 +5764,12 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -7911,7 +5777,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D80" s="13">
         <v>155469</v>
@@ -7920,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" ref="F80:F87" si="15">G80-SUM(D80:E80)</f>
+        <f t="shared" ref="F80:F87" si="17">G80-SUM(D80:E80)</f>
         <v>37406</v>
       </c>
       <c r="G80" s="3">
@@ -7935,8 +5801,12 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L80" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -7944,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D81" s="13">
         <v>236379</v>
@@ -7953,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G81" s="3">
@@ -7968,8 +5838,12 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L81" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7977,7 +5851,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D82" s="13">
         <v>201871</v>
@@ -7986,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23677</v>
       </c>
       <c r="G82" s="3">
@@ -8001,8 +5875,12 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -8010,7 +5888,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D83" s="13">
         <v>199050</v>
@@ -8019,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22192</v>
       </c>
       <c r="G83" s="3">
@@ -8034,8 +5912,12 @@
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -8043,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D84" s="13">
         <v>0</v>
@@ -8052,7 +5934,7 @@
         <v>150228</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>25001</v>
       </c>
       <c r="G84" s="3">
@@ -8067,8 +5949,12 @@
       <c r="J84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L84" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -8076,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D85" s="13">
         <v>176314</v>
@@ -8085,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27161</v>
       </c>
       <c r="G85" s="3">
@@ -8100,8 +5986,12 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L85" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -8109,7 +5999,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D86" s="13">
         <v>0</v>
@@ -8118,7 +6008,7 @@
         <v>149640</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38029</v>
       </c>
       <c r="G86" s="3">
@@ -8133,8 +6023,12 @@
       <c r="J86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L86" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -8142,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D87" s="13">
         <v>162868</v>
@@ -8151,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>66303</v>
       </c>
       <c r="G87" s="3">
@@ -8166,8 +6060,12 @@
       <c r="J87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L87" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -8175,7 +6073,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D88" s="13">
         <v>193675</v>
@@ -8184,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" ref="F88" si="16">G88-SUM(D88:E88)</f>
+        <f t="shared" ref="F88" si="18">G88-SUM(D88:E88)</f>
         <v>24890</v>
       </c>
       <c r="G88" s="3">
@@ -8199,8 +6097,12 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L88" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -8208,7 +6110,7 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D89" s="13">
         <v>0</v>
@@ -8217,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89" s="3">
@@ -8232,8 +6134,12 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L89" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -8241,7 +6147,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D90" s="13">
         <v>0</v>
@@ -8250,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G90" s="3">
@@ -8265,8 +6171,12 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L90" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -8274,7 +6184,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D91" s="13">
         <v>0</v>
@@ -8283,7 +6193,7 @@
         <v>247818</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34185</v>
       </c>
       <c r="G91" s="3">
@@ -8298,8 +6208,12 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L91" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -8307,7 +6221,7 @@
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D92" s="13">
         <v>229919</v>
@@ -8316,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G92" s="3">
@@ -8331,8 +6245,12 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L92" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -8340,7 +6258,7 @@
         <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D93" s="13">
         <v>0</v>
@@ -8349,7 +6267,7 @@
         <v>378754</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" ref="F93" si="17">G93-SUM(D93:E93)</f>
+        <f t="shared" ref="F93" si="19">G93-SUM(D93:E93)</f>
         <v>0</v>
       </c>
       <c r="G93" s="3">
@@ -8364,8 +6282,12 @@
       <c r="J93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L93" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -8373,7 +6295,7 @@
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D94" s="13">
         <v>0</v>
@@ -8382,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G94" s="3">
@@ -8397,8 +6319,12 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L94" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -8406,7 +6332,7 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D95" s="13">
         <v>0</v>
@@ -8415,7 +6341,7 @@
         <v>257401</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2969</v>
       </c>
       <c r="G95" s="3">
@@ -8430,8 +6356,12 @@
       <c r="J95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L95" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -8439,7 +6369,7 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D96" s="13">
         <v>0</v>
@@ -8448,7 +6378,7 @@
         <v>220181</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" ref="F96" si="18">G96-SUM(D96:E96)</f>
+        <f t="shared" ref="F96" si="20">G96-SUM(D96:E96)</f>
         <v>66728</v>
       </c>
       <c r="G96" s="3">
@@ -8463,8 +6393,12 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -8472,7 +6406,7 @@
         <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D97" s="13">
         <v>0</v>
@@ -8481,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97" s="3">
@@ -8496,53 +6430,57 @@
       <c r="J97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="16">
-        <f t="shared" ref="D99:J99" si="19">SUM(D3:D97)</f>
+        <f t="shared" ref="D99:J99" si="21">SUM(D3:D97)</f>
         <v>6997031</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7303171</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2436192</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16736394</v>
       </c>
       <c r="H99" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K99" s="18"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C101" s="31"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C102" s="31"/>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C101" s="25"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C102" s="25"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -8551,914 +6489,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3">
-        <v>688365</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>450006</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3">
-        <v>766113</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1819238</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1182044</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>931115</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>254583</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3">
-        <v>257971</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="3">
-        <v>473067</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="3">
-        <v>539931</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1823722</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1122902</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="3">
-        <v>226720</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1127582</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="3">
-        <v>338459</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="3">
-        <v>382355</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>777893</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2136373</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3">
-        <v>282003</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="3">
-        <v>608673</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="3">
-        <v>547279</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="3">
-        <v>16736394</v>
-      </c>
-      <c r="D54">
-        <v>33</v>
-      </c>
-      <c r="E54">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB59F4BE-9C05-1349-87A9-23243C2F7A0C}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9469,34 +6503,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11104,7 +8138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F200EB71-ECCD-1549-BE40-92D899CE8876}">
   <dimension ref="A1:J96"/>
   <sheetViews>
@@ -11119,34 +8153,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11157,7 +8191,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>208083</v>
@@ -11189,7 +8223,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D3">
         <v>235925</v>
@@ -11221,7 +8255,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -11253,7 +8287,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11285,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11317,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>204942</v>
@@ -11349,7 +8383,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>183866</v>
@@ -11381,7 +8415,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9">
         <v>217192</v>
@@ -11413,7 +8447,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D10">
         <v>182885</v>
@@ -11445,7 +8479,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11477,7 +8511,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -11509,7 +8543,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -11541,7 +8575,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11573,7 +8607,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11605,7 +8639,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -11637,7 +8671,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -11669,7 +8703,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -11701,7 +8735,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -11733,7 +8767,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -11765,7 +8799,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -11797,7 +8831,7 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -11829,7 +8863,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -11861,7 +8895,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D24">
         <v>210243</v>
@@ -11893,7 +8927,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D25">
         <v>256535</v>
@@ -11925,7 +8959,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D26">
         <v>243725</v>
@@ -11957,7 +8991,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -11989,7 +9023,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D28">
         <v>216743</v>
@@ -12021,7 +9055,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -12053,7 +9087,7 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -12085,7 +9119,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -12117,7 +9151,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -12149,7 +9183,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D33">
         <v>274554</v>
@@ -12181,7 +9215,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D34">
         <v>259722</v>
@@ -12213,7 +9247,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -12245,7 +9279,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -12277,7 +9311,7 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D37">
         <v>169992</v>
@@ -12309,7 +9343,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D38">
         <v>251825</v>
@@ -12341,7 +9375,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D39">
         <v>221242</v>
@@ -12373,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -12405,7 +9439,7 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D41">
         <v>255662</v>
@@ -12437,7 +9471,7 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -12469,7 +9503,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -12501,7 +9535,7 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -12533,7 +9567,7 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -12565,7 +9599,7 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -12597,7 +9631,7 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -12629,7 +9663,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -12661,7 +9695,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -12693,7 +9727,7 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D50">
         <v>173970</v>
@@ -12725,7 +9759,7 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D51">
         <v>223075</v>
@@ -12757,7 +9791,7 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D52">
         <v>235385</v>
@@ -12789,7 +9823,7 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -12821,7 +9855,7 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -12853,7 +9887,7 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -12885,7 +9919,7 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D56">
         <v>226720</v>
@@ -12917,7 +9951,7 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -12949,7 +9983,7 @@
         <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -12981,7 +10015,7 @@
         <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -13013,7 +10047,7 @@
         <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -13045,7 +10079,7 @@
         <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -13077,7 +10111,7 @@
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -13109,7 +10143,7 @@
         <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -13141,7 +10175,7 @@
         <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -13173,7 +10207,7 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -13205,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -13269,7 +10303,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -13301,7 +10335,7 @@
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -13333,7 +10367,7 @@
         <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -13365,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D71">
         <v>244893</v>
@@ -13397,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -13429,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D73">
         <v>293684</v>
@@ -13461,7 +10495,7 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -13493,7 +10527,7 @@
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -13525,7 +10559,7 @@
         <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -13557,7 +10591,7 @@
         <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -13589,7 +10623,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D78">
         <v>216643</v>
@@ -13621,7 +10655,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D79">
         <v>155469</v>
@@ -13653,7 +10687,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D80">
         <v>236379</v>
@@ -13685,7 +10719,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D81">
         <v>201871</v>
@@ -13717,7 +10751,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D82">
         <v>199050</v>
@@ -13749,7 +10783,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -13781,7 +10815,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D84">
         <v>176314</v>
@@ -13813,7 +10847,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -13845,7 +10879,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D86">
         <v>162868</v>
@@ -13877,7 +10911,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D87">
         <v>193675</v>
@@ -13909,7 +10943,7 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -13941,7 +10975,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -13973,7 +11007,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -14005,7 +11039,7 @@
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D91">
         <v>229919</v>
@@ -14037,7 +11071,7 @@
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -14069,7 +11103,7 @@
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -14101,7 +11135,7 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -14133,7 +11167,7 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -14165,7 +11199,7 @@
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D96">
         <v>0</v>
